--- a/高中签到表.xlsx
+++ b/高中签到表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
   <si>
     <t>下午</t>
   </si>
@@ -34,7 +34,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>冯婷</t>
+    <t>上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -46,14 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李贤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘晓蓉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>牟月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,11 +158,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上午</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科目</t>
+    <t>申安福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邹涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄白雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李林欣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -178,27 +182,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物理/数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>物理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>物理/英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>数学/物理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>英语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +202,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,23 +240,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Droid Sans Fallback"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -271,7 +254,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -294,42 +277,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -337,17 +294,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -361,17 +309,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -668,636 +607,712 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="25.75" customWidth="1"/>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="7.125" customWidth="1"/>
     <col min="6" max="6" width="5.625" customWidth="1"/>
+    <col min="8" max="8" width="5.625" customWidth="1"/>
     <col min="10" max="10" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8" t="s">
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8" t="s">
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="8"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>39</v>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="6"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
+      <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="6"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>41</v>
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
+      <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>39</v>
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
+      <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
+      <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
+      <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="6"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>42</v>
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
+      <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="6"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>40</v>
+        <v>14</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="6"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>42</v>
+        <v>15</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
+      <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
+      <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="6"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>39</v>
+        <v>16</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="6"/>
+      <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>39</v>
+        <v>18</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
+      <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
+      <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="6"/>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>39</v>
+        <v>19</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
+      <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="6"/>
+      <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>39</v>
+        <v>20</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
+      <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="6"/>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>43</v>
+        <v>21</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
+      <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="6"/>
+      <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="6"/>
+      <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>39</v>
+        <v>22</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
+      <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
+      <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="6"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>39</v>
+        <v>23</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
+      <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="6"/>
+      <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
+      <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>39</v>
+        <v>24</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
+      <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="6"/>
+      <c r="H21" s="5"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="6"/>
+      <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>39</v>
+        <v>25</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
+      <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="6"/>
+      <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="6"/>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
+      <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="6"/>
+      <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="6"/>
+      <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>39</v>
+        <v>27</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="6"/>
+      <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="6"/>
+      <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="6"/>
+      <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>42</v>
+        <v>28</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
+      <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="6"/>
+      <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="6"/>
+      <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>43</v>
+        <v>29</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="6"/>
+      <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="6"/>
+      <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="6"/>
+      <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>43</v>
+        <v>30</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="6"/>
+      <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="6"/>
+      <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="6"/>
+      <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>43</v>
+        <v>31</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="D28" s="5"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="6"/>
+      <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="6"/>
+      <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="6"/>
+      <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="D29" s="5"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="6"/>
+      <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="6"/>
+      <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="6"/>
+      <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>45</v>
+        <v>33</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="D30" s="5"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="6"/>
+      <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="6"/>
+      <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="6"/>
+      <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>45</v>
+        <v>34</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="6"/>
+      <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="6"/>
+      <c r="H31" s="5"/>
       <c r="I31" s="5"/>
-      <c r="J31" s="6"/>
+      <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>46</v>
+        <v>35</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="D32" s="5"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="6"/>
+      <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="6"/>
+      <c r="H32" s="5"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="6"/>
+      <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>46</v>
+        <v>36</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="D33" s="8"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="6"/>
+      <c r="F33" s="8"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="6"/>
+      <c r="H33" s="8"/>
       <c r="I33" s="5"/>
-      <c r="J33" s="6"/>
+      <c r="J33" s="8"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="D34" s="8"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="6"/>
+      <c r="F34" s="8"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="6"/>
+      <c r="H34" s="8"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="6"/>
+      <c r="J34" s="8"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>45</v>
+        <v>38</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="D35" s="8"/>
       <c r="E35" s="5"/>
-      <c r="F35" s="6"/>
+      <c r="F35" s="8"/>
       <c r="G35" s="5"/>
-      <c r="H35" s="6"/>
+      <c r="H35" s="8"/>
       <c r="I35" s="5"/>
-      <c r="J35" s="6"/>
+      <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="3"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="C36" s="5"/>
-      <c r="D36" s="11"/>
+      <c r="D36" s="8"/>
       <c r="E36" s="5"/>
-      <c r="F36" s="11"/>
+      <c r="F36" s="8"/>
       <c r="G36" s="5"/>
-      <c r="H36" s="11"/>
+      <c r="H36" s="8"/>
       <c r="I36" s="5"/>
-      <c r="J36" s="11"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="3"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="11"/>
+      <c r="J36" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="143">
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
+  <mergeCells count="139">
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="G33:H33"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
@@ -1309,114 +1324,28 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E23:F23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/高中签到表.xlsx
+++ b/高中签到表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>下午</t>
   </si>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>牟月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张泓翔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,10 +91,6 @@
   </si>
   <si>
     <t>赵玲钰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李相明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -297,10 +289,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -308,9 +303,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -607,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -624,34 +616,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
@@ -660,54 +652,54 @@
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
@@ -716,62 +708,62 @@
       <c r="B6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
@@ -780,190 +772,190 @@
       <c r="B10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
@@ -972,78 +964,78 @@
       <c r="B22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
@@ -1052,14 +1044,14 @@
       <c r="B27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
@@ -1068,61 +1060,61 @@
       <c r="B28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="C31" s="4"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="G31" s="4"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
+      <c r="I31" s="4"/>
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10">
@@ -1130,15 +1122,15 @@
         <v>35</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="C32" s="4"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
+      <c r="G32" s="4"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
+      <c r="I32" s="4"/>
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10">
@@ -1146,16 +1138,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
@@ -1164,120 +1156,49 @@
       <c r="B34" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="8"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="8"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="8"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="139">
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
+  <mergeCells count="131">
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="G2:J2"/>
@@ -1288,31 +1209,6 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
@@ -1324,28 +1220,84 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E23:F23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
